--- a/data/trans_dic/P16B07-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16B07-Provincia-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16B07-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16B07-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,18%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>76,75; 100</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 20,75</t>
+          <t>79,25; 100</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 9,05</t>
+          <t>77,63; 100,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 7,93</t>
+          <t>92,07; 100</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 6,81</t>
+          <t>76,81; 100,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 5,96</t>
+          <t>94,04; 100</t>
         </is>
       </c>
     </row>
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,06%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,59%</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 36,25</t>
+          <t>63,75; 100</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 20,75</t>
+          <t>79,25; 100</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>76,75; 100</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>93,64; 100</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 4,66</t>
+          <t>95,34; 100</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 6,15</t>
+          <t>87,85; 100,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 5,61</t>
+          <t>94,39; 100</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,9</t>
+          <t>96,1; 100</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 5,03</t>
+          <t>89,94; 100,0</t>
         </is>
       </c>
     </row>
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>93,54%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,82%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 44,41</t>
+          <t>55,59; 100</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 14,51</t>
+          <t>85,49; 100</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 56,93</t>
+          <t>43,07; 100</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 11,83</t>
+          <t>73,49; 100,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>93,64; 100</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 13,49</t>
+          <t>86,51; 100</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 9,99</t>
+          <t>73,48; 100,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 4,55</t>
+          <t>95,45; 100</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 11,83</t>
+          <t>88,17; 100</t>
         </is>
       </c>
     </row>
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,06%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,43%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 44,41</t>
+          <t>55,59; 100</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 12,61</t>
+          <t>87,39; 100</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>76,75; 100</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 9,99</t>
+          <t>90,01; 100</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,19</t>
+          <t>90,35; 100,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 7,06</t>
+          <t>92,94; 100</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 8,64</t>
+          <t>91,36; 100</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,59</t>
+          <t>92,11; 100,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 5,61</t>
+          <t>94,39; 100</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,78%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,86%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 18,74</t>
+          <t>81,26; 100</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 26,42</t>
+          <t>73,58; 100</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 14,51</t>
+          <t>85,49; 100</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 7,93</t>
+          <t>78,19; 100,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 5,78</t>
+          <t>94,22; 100</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 9,05</t>
+          <t>90,95; 100</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 5,78</t>
+          <t>81,65; 100,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 4,9</t>
+          <t>95,1; 100</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 5,78</t>
+          <t>94,22; 100</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1182,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,56%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,01%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,86%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,44%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 56,93</t>
+          <t>43,07; 100</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 17,08</t>
+          <t>82,92; 100</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 44,41</t>
+          <t>55,59; 100</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 18,74</t>
+          <t>81,26; 100</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 7,61</t>
+          <t>77,62; 100,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 8,27</t>
+          <t>79,33; 100,0</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 15,69</t>
+          <t>84,31; 100</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 5,45</t>
+          <t>85,66; 100,0</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 7,32</t>
+          <t>81,82; 100,0</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1292,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1345,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 14,51</t>
+          <t>85,49; 100</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 7,32</t>
+          <t>92,68; 100</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>76,75; 100</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 3,98</t>
+          <t>96,02; 100</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 4,07</t>
+          <t>95,93; 100</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 5,96</t>
+          <t>94,04; 100</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 3,19</t>
+          <t>96,81; 100</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 2,66</t>
+          <t>97,34; 100</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 4,9</t>
+          <t>95,1; 100</t>
         </is>
       </c>
     </row>
@@ -1402,47 +1402,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>93,77%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,25%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,71%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -1455,47 +1455,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>78,53; 100,0</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0; 9,99</t>
+          <t>90,01; 100</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0; 7,06</t>
+          <t>92,94; 100</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0; 3,98</t>
+          <t>85,38; 100,0</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0; 3,68</t>
+          <t>96,32; 100</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0; 3,19</t>
+          <t>96,81; 100</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0; 2,49</t>
+          <t>86,35; 98,52</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0; 2,74</t>
+          <t>97,26; 100</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0; 2,23</t>
+          <t>97,77; 100</t>
         </is>
       </c>
     </row>
@@ -1512,47 +1512,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,27%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,41%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,24%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,23%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,38%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,44%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,41%</t>
         </is>
       </c>
     </row>
@@ -1565,47 +1565,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0; 2,74</t>
+          <t>91,12; 100,0</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0; 2,04</t>
+          <t>97,96; 100</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0; 2,62</t>
+          <t>97,38; 100</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,92</t>
+          <t>94,17; 99,05</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,68</t>
+          <t>97,02; 100,0</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,85</t>
+          <t>97,5; 100,0</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>94,73; 98,92</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>98,23; 100,0</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,65</t>
+          <t>97,9; 100,0</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16B07-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16B07-Provincia-trans_dic.xlsx
@@ -637,7 +637,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -652,7 +652,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>94,42%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>96,09%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -690,7 +690,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>81,26; 100</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -705,7 +705,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>74,66; 100,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -720,7 +720,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>77,69; 100,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -982,7 +982,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>98,06%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -997,7 +997,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>98,43%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1020,7 +1020,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>87,39; 100</t>
+          <t>69,43; 100</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>90,35; 100,0</t>
+          <t>95,22; 100</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>92,11; 100,0</t>
+          <t>95,75; 100</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">

--- a/data/trans_dic/P16B07-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16B07-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -622,7 +623,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -700,12 +701,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>77,63; 100,0</t>
+          <t>75,08; 100,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>74,66; 100,0</t>
+          <t>66,54; 100,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -715,12 +716,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>76,81; 100,0</t>
+          <t>79,83; 100,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>77,69; 100,0</t>
+          <t>76,49; 100,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -732,7 +733,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -820,7 +821,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>87,85; 100,0</t>
+          <t>84,64; 100,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -835,14 +836,14 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>89,94; 100,0</t>
+          <t>87,8; 100,0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -920,7 +921,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>73,49; 100,0</t>
+          <t>73,42; 100,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -935,7 +936,7 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>73,48; 100,0</t>
+          <t>72,08; 100,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1140,7 +1141,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>78,19; 100,0</t>
+          <t>78,33; 100,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1155,7 +1156,7 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>81,65; 100,0</t>
+          <t>86,42; 100,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1172,7 +1173,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1255,12 +1256,12 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>77,62; 100,0</t>
+          <t>78,02; 100,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>79,33; 100,0</t>
+          <t>82,87; 100,0</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1270,19 +1271,19 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>85,66; 100,0</t>
+          <t>84,73; 100,0</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>81,82; 100,0</t>
+          <t>83,35; 100,0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1455,7 +1456,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>78,53; 100,0</t>
+          <t>78,02; 100,0</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1470,7 +1471,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>85,38; 100,0</t>
+          <t>84,56; 100,0</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1485,7 +1486,7 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>86,35; 98,52</t>
+          <t>87,11; 98,56</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1565,7 +1566,7 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>91,12; 100,0</t>
+          <t>90,32; 100,0</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
@@ -1580,32 +1581,32 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>94,17; 99,05</t>
+          <t>94,22; 99,06</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>97,02; 100,0</t>
+          <t>97,31; 100,0</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>97,5; 100,0</t>
+          <t>97,27; 100,0</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>94,73; 98,92</t>
+          <t>94,78; 98,84</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>98,23; 100,0</t>
+          <t>98,28; 100,0</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>97,9; 100,0</t>
+          <t>98,16; 100,0</t>
         </is>
       </c>
     </row>
@@ -1634,4 +1635,1619 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyos antidepresivos fueron recetados por el médico</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>6559</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>9015</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>8194</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>20311</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>19925</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>23617</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>26870</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>28940</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>31811</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>5034; 6559</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>7326; 9015</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>6494; 8194</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>16051; 21379</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>14040; 21101</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>21745; 23617</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>22303; 27938</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>23036; 30116</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>29915; 31811</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>3952</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>12523</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>7458</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>29540</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>42784</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>32481</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>33492</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>55307</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>39939</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>2519; 3952</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>9924; 12523</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>5724; 7458</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>27663; 29540</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>40790; 42784</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>28324; 33466</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>31612; 33492</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>53149; 55307</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>35930; 40924</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>3769</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>12955</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>2248</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>14226</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>30737</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>14074</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>17995</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>43692</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>16322</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2095; 3769</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>11076; 12955</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>968; 2248</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>11166; 15209</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>28784; 30737</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>12176; 14074</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>13679; 18978</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>41704; 43692</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>14391; 16322</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>2862</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>5251</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>6859</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>16682</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>39444</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>27370</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>19544</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>44695</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>34229</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>1591; 2862</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>3646; 5251</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>5265; 6859</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>15016; 16682</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>37560; 39444</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>25439; 27370</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>17855; 19544</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>42797; 44695</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>32308; 34229</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>8134</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>6277</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>11715</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>22693</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>33539</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>19960</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>30827</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>39816</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>31675</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>6610; 8134</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>4619; 6277</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>10016; 11715</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>18559; 23693</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>31600; 33539</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>18154; 19960</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>27505; 31827</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>37866; 39816</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>29844; 31675</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>2062</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>10100</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>2767</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>9005</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>23390</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>22274</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>11067</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>33490</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>25041</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>888; 2062</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>8375; 10100</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>1538; 2767</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>7318; 9005</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>19096; 24477</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>19225; 23199</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>9331; 11067</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>29296; 34577</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>21644; 25966</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>11048</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>27704</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>8365</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>46614</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>50177</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>35596</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>57662</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>77880</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>43961</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>9445; 11048</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>25675; 27704</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>6420; 8365</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>44757; 46614</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>48136; 50177</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>33474; 35596</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>55823; 57662</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>75809; 77880</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>41808; 43961</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>28039</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>21130</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>25432</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>50525</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>54346</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>70753</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>78564</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>75476</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>96185</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>23330; 29902</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>19020; 21130</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>23638; 25432</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>44857; 53046</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>52347; 54346</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>68496; 70753</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>72259; 81758</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>73411; 75476</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>94042; 96185</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>372</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>294</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>66425</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>104954</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>73039</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>209596</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>294341</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>246125</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>276022</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>399295</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>319164</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>61678; 68288</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>102814; 104954</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>71123; 73039</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>202739; 213138</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>288637; 296605</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>241251; 248034</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>268664; 280180</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>394661; 401559</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>315174; 321073</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>